--- a/2022年E题第2问/真实值与预测值.xlsx
+++ b/2022年E题第2问/真实值与预测值.xlsx
@@ -1927,1430 +1927,1430 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13.7911376953125</v>
+        <v>11.65082168579102</v>
       </c>
       <c r="B2" t="n">
-        <v>42.74958419799805</v>
+        <v>42.30625915527344</v>
       </c>
       <c r="C2" t="n">
-        <v>55.30828094482422</v>
+        <v>54.6914176940918</v>
       </c>
       <c r="D2" t="n">
-        <v>168.3257141113281</v>
+        <v>168.3120880126953</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12.71232414245605</v>
+        <v>10.51965045928955</v>
       </c>
       <c r="B3" t="n">
-        <v>37.08959579467773</v>
+        <v>39.95441055297852</v>
       </c>
       <c r="C3" t="n">
-        <v>53.08111190795898</v>
+        <v>52.63701248168945</v>
       </c>
       <c r="D3" t="n">
-        <v>167.0272521972656</v>
+        <v>167.9873657226562</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11.16988277435303</v>
+        <v>11.20432758331299</v>
       </c>
       <c r="B4" t="n">
-        <v>35.67623519897461</v>
+        <v>35.73571014404297</v>
       </c>
       <c r="C4" t="n">
-        <v>44.58615493774414</v>
+        <v>44.25621795654297</v>
       </c>
       <c r="D4" t="n">
-        <v>167.6547241210938</v>
+        <v>167.7290954589844</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13.13668060302734</v>
+        <v>12.04731941223145</v>
       </c>
       <c r="B5" t="n">
-        <v>44.31727981567383</v>
+        <v>44.18491744995117</v>
       </c>
       <c r="C5" t="n">
-        <v>48.01753234863281</v>
+        <v>48.19281768798828</v>
       </c>
       <c r="D5" t="n">
-        <v>167.3388366699219</v>
+        <v>167.4043579101562</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12.52467823028564</v>
+        <v>12.55990409851074</v>
       </c>
       <c r="B6" t="n">
-        <v>46.95568466186523</v>
+        <v>46.73328399658203</v>
       </c>
       <c r="C6" t="n">
-        <v>58.38784408569336</v>
+        <v>60.83550643920898</v>
       </c>
       <c r="D6" t="n">
-        <v>167.3273620605469</v>
+        <v>167.4053192138672</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10.66929721832275</v>
+        <v>10.69964694976807</v>
       </c>
       <c r="B7" t="n">
-        <v>43.52467727661133</v>
+        <v>40.10057830810547</v>
       </c>
       <c r="C7" t="n">
-        <v>42.81774520874023</v>
+        <v>42.33918762207031</v>
       </c>
       <c r="D7" t="n">
-        <v>167.2943725585938</v>
+        <v>167.263671875</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10.30190086364746</v>
+        <v>10.47168636322021</v>
       </c>
       <c r="B8" t="n">
-        <v>44.05110931396484</v>
+        <v>43.41786956787109</v>
       </c>
       <c r="C8" t="n">
-        <v>44.42519378662109</v>
+        <v>50.25349807739258</v>
       </c>
       <c r="D8" t="n">
-        <v>167.3792114257812</v>
+        <v>167.2364044189453</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12.20798492431641</v>
+        <v>12.2854471206665</v>
       </c>
       <c r="B9" t="n">
-        <v>35.62605285644531</v>
+        <v>33.54203033447266</v>
       </c>
       <c r="C9" t="n">
-        <v>50.79755401611328</v>
+        <v>47.04660415649414</v>
       </c>
       <c r="D9" t="n">
-        <v>167.2848510742188</v>
+        <v>166.7115020751953</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14.32420253753662</v>
+        <v>12.83948230743408</v>
       </c>
       <c r="B10" t="n">
-        <v>43.28518295288086</v>
+        <v>43.39557266235352</v>
       </c>
       <c r="C10" t="n">
-        <v>54.07071685791016</v>
+        <v>50.07685852050781</v>
       </c>
       <c r="D10" t="n">
-        <v>167.0251922607422</v>
+        <v>166.1729125976562</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12.38541412353516</v>
+        <v>12.42908000946045</v>
       </c>
       <c r="B11" t="n">
-        <v>52.19554901123047</v>
+        <v>40.4294319152832</v>
       </c>
       <c r="C11" t="n">
-        <v>92.63131713867188</v>
+        <v>70.90264892578125</v>
       </c>
       <c r="D11" t="n">
-        <v>165.4999847412109</v>
+        <v>164.5034484863281</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12.38216018676758</v>
+        <v>12.41499519348145</v>
       </c>
       <c r="B12" t="n">
-        <v>42.6844367980957</v>
+        <v>43.01365661621094</v>
       </c>
       <c r="C12" t="n">
-        <v>53.17641830444336</v>
+        <v>54.76033401489258</v>
       </c>
       <c r="D12" t="n">
-        <v>168.2957000732422</v>
+        <v>168.2461090087891</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10.3308219909668</v>
+        <v>12.03874397277832</v>
       </c>
       <c r="B13" t="n">
-        <v>47.74709701538086</v>
+        <v>38.13282012939453</v>
       </c>
       <c r="C13" t="n">
-        <v>52.63856887817383</v>
+        <v>53.24090576171875</v>
       </c>
       <c r="D13" t="n">
-        <v>168.0783996582031</v>
+        <v>168.2457427978516</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>10.79168701171875</v>
+        <v>10.75459575653076</v>
       </c>
       <c r="B14" t="n">
-        <v>35.68799209594727</v>
+        <v>37.33241653442383</v>
       </c>
       <c r="C14" t="n">
-        <v>44.4823112487793</v>
+        <v>44.21237945556641</v>
       </c>
       <c r="D14" t="n">
-        <v>167.6855926513672</v>
+        <v>167.764892578125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11.66848087310791</v>
+        <v>13.29836559295654</v>
       </c>
       <c r="B15" t="n">
-        <v>44.46889114379883</v>
+        <v>44.54469299316406</v>
       </c>
       <c r="C15" t="n">
-        <v>48.06529998779297</v>
+        <v>47.91560745239258</v>
       </c>
       <c r="D15" t="n">
-        <v>167.5538482666016</v>
+        <v>167.5003967285156</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11.72959327697754</v>
+        <v>11.69277000427246</v>
       </c>
       <c r="B16" t="n">
-        <v>43.33076858520508</v>
+        <v>39.85823059082031</v>
       </c>
       <c r="C16" t="n">
-        <v>47.20187759399414</v>
+        <v>50.97283935546875</v>
       </c>
       <c r="D16" t="n">
-        <v>167.3372344970703</v>
+        <v>167.30615234375</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>12.10380363464355</v>
+        <v>12.28396892547607</v>
       </c>
       <c r="B17" t="n">
-        <v>44.97214508056641</v>
+        <v>46.06850433349609</v>
       </c>
       <c r="C17" t="n">
-        <v>62.45376586914062</v>
+        <v>52.33010101318359</v>
       </c>
       <c r="D17" t="n">
-        <v>167.1721038818359</v>
+        <v>167.1929168701172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9.961910247802734</v>
+        <v>9.627511024475098</v>
       </c>
       <c r="B18" t="n">
-        <v>45.81856918334961</v>
+        <v>45.97320938110352</v>
       </c>
       <c r="C18" t="n">
-        <v>57.97012329101562</v>
+        <v>63.70220947265625</v>
       </c>
       <c r="D18" t="n">
-        <v>167.0626983642578</v>
+        <v>166.9971008300781</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11.77461528778076</v>
+        <v>11.83719539642334</v>
       </c>
       <c r="B19" t="n">
-        <v>33.86833190917969</v>
+        <v>33.84514236450195</v>
       </c>
       <c r="C19" t="n">
-        <v>47.1643180847168</v>
+        <v>46.84235763549805</v>
       </c>
       <c r="D19" t="n">
-        <v>166.6686248779297</v>
+        <v>166.7316741943359</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>13.56361865997314</v>
+        <v>13.2090892791748</v>
       </c>
       <c r="B20" t="n">
-        <v>37.12650680541992</v>
+        <v>44.65243911743164</v>
       </c>
       <c r="C20" t="n">
-        <v>50.42353820800781</v>
+        <v>53.90548324584961</v>
       </c>
       <c r="D20" t="n">
-        <v>166.5030059814453</v>
+        <v>167.7593994140625</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11.53066349029541</v>
+        <v>11.96145915985107</v>
       </c>
       <c r="B21" t="n">
-        <v>52.10812377929688</v>
+        <v>52.1132926940918</v>
       </c>
       <c r="C21" t="n">
-        <v>92.91661834716797</v>
+        <v>57.93821334838867</v>
       </c>
       <c r="D21" t="n">
-        <v>164.4770355224609</v>
+        <v>164.9569702148438</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>12.88321971893311</v>
+        <v>12.77374458312988</v>
       </c>
       <c r="B22" t="n">
-        <v>42.7435188293457</v>
+        <v>42.73175430297852</v>
       </c>
       <c r="C22" t="n">
-        <v>55.20912551879883</v>
+        <v>54.72949981689453</v>
       </c>
       <c r="D22" t="n">
-        <v>168.3420257568359</v>
+        <v>168.4199371337891</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>13.99590396881104</v>
+        <v>13.87510108947754</v>
       </c>
       <c r="B23" t="n">
-        <v>36.25863647460938</v>
+        <v>38.83650970458984</v>
       </c>
       <c r="C23" t="n">
-        <v>52.58874130249023</v>
+        <v>52.89828109741211</v>
       </c>
       <c r="D23" t="n">
-        <v>167.9463806152344</v>
+        <v>166.9376983642578</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10.0008020401001</v>
+        <v>9.858380317687988</v>
       </c>
       <c r="B24" t="n">
-        <v>35.88300323486328</v>
+        <v>35.92158889770508</v>
       </c>
       <c r="C24" t="n">
-        <v>45.01603698730469</v>
+        <v>44.12896728515625</v>
       </c>
       <c r="D24" t="n">
-        <v>167.7153930664062</v>
+        <v>167.7765045166016</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>11.00319480895996</v>
+        <v>10.8653564453125</v>
       </c>
       <c r="B25" t="n">
-        <v>41.88730239868164</v>
+        <v>39.98960876464844</v>
       </c>
       <c r="C25" t="n">
-        <v>44.56449508666992</v>
+        <v>39.57327270507812</v>
       </c>
       <c r="D25" t="n">
-        <v>167.5081024169922</v>
+        <v>167.6847839355469</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>11.15733051300049</v>
+        <v>11.37487411499023</v>
       </c>
       <c r="B26" t="n">
-        <v>46.66306304931641</v>
+        <v>46.85102844238281</v>
       </c>
       <c r="C26" t="n">
-        <v>50.10625839233398</v>
+        <v>45.01764297485352</v>
       </c>
       <c r="D26" t="n">
-        <v>167.3687896728516</v>
+        <v>167.3853149414062</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9.746963500976562</v>
+        <v>9.707393646240234</v>
       </c>
       <c r="B27" t="n">
-        <v>34.2181396484375</v>
+        <v>34.08511734008789</v>
       </c>
       <c r="C27" t="n">
-        <v>42.77280807495117</v>
+        <v>42.74666976928711</v>
       </c>
       <c r="D27" t="n">
-        <v>167.2613220214844</v>
+        <v>167.2886810302734</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>12.21581935882568</v>
+        <v>11.3958158493042</v>
       </c>
       <c r="B28" t="n">
-        <v>46.4842529296875</v>
+        <v>47.10665512084961</v>
       </c>
       <c r="C28" t="n">
-        <v>63.75614929199219</v>
+        <v>64.30256652832031</v>
       </c>
       <c r="D28" t="n">
-        <v>167.0341339111328</v>
+        <v>166.8794860839844</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>11.94235610961914</v>
+        <v>11.92528533935547</v>
       </c>
       <c r="B29" t="n">
-        <v>34.38532638549805</v>
+        <v>33.76562118530273</v>
       </c>
       <c r="C29" t="n">
-        <v>51.35566711425781</v>
+        <v>47.23677825927734</v>
       </c>
       <c r="D29" t="n">
-        <v>167.5847778320312</v>
+        <v>166.7529602050781</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>14.48290538787842</v>
+        <v>14.35176563262939</v>
       </c>
       <c r="B30" t="n">
-        <v>50.04616928100586</v>
+        <v>42.6219482421875</v>
       </c>
       <c r="C30" t="n">
-        <v>80.95915985107422</v>
+        <v>77.61013793945312</v>
       </c>
       <c r="D30" t="n">
-        <v>165.8816223144531</v>
+        <v>165.9554290771484</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>13.54716110229492</v>
+        <v>14.49712085723877</v>
       </c>
       <c r="B31" t="n">
-        <v>52.30002593994141</v>
+        <v>48.98384857177734</v>
       </c>
       <c r="C31" t="n">
-        <v>93.14949798583984</v>
+        <v>93.56622314453125</v>
       </c>
       <c r="D31" t="n">
-        <v>164.4472045898438</v>
+        <v>164.9478607177734</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>15.49852085113525</v>
+        <v>15.50659656524658</v>
       </c>
       <c r="B32" t="n">
-        <v>41.98207473754883</v>
+        <v>39.29779052734375</v>
       </c>
       <c r="C32" t="n">
-        <v>52.59165191650391</v>
+        <v>52.58425521850586</v>
       </c>
       <c r="D32" t="n">
-        <v>167.7653961181641</v>
+        <v>167.9362487792969</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>15.32965660095215</v>
+        <v>15.2800350189209</v>
       </c>
       <c r="B33" t="n">
-        <v>35.3773307800293</v>
+        <v>35.65830612182617</v>
       </c>
       <c r="C33" t="n">
-        <v>44.44284057617188</v>
+        <v>44.53377914428711</v>
       </c>
       <c r="D33" t="n">
-        <v>167.6959228515625</v>
+        <v>167.7034301757812</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>11.02048778533936</v>
+        <v>11.05270576477051</v>
       </c>
       <c r="B34" t="n">
-        <v>43.85689163208008</v>
+        <v>44.00170135498047</v>
       </c>
       <c r="C34" t="n">
-        <v>47.68158721923828</v>
+        <v>48.03145980834961</v>
       </c>
       <c r="D34" t="n">
-        <v>167.5039672851562</v>
+        <v>167.5135040283203</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>11.05278491973877</v>
+        <v>11.03525257110596</v>
       </c>
       <c r="B35" t="n">
-        <v>46.01096725463867</v>
+        <v>46.37223434448242</v>
       </c>
       <c r="C35" t="n">
-        <v>45.67555999755859</v>
+        <v>45.99845504760742</v>
       </c>
       <c r="D35" t="n">
-        <v>167.3402099609375</v>
+        <v>167.3645172119141</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>14.43890953063965</v>
+        <v>14.34395790100098</v>
       </c>
       <c r="B36" t="n">
-        <v>38.74870300292969</v>
+        <v>38.31747436523438</v>
       </c>
       <c r="C36" t="n">
-        <v>51.07115936279297</v>
+        <v>56.88403701782227</v>
       </c>
       <c r="D36" t="n">
-        <v>167.2617950439453</v>
+        <v>167.1761627197266</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>13.13374900817871</v>
+        <v>12.60521411895752</v>
       </c>
       <c r="B37" t="n">
-        <v>39.29715728759766</v>
+        <v>45.54506301879883</v>
       </c>
       <c r="C37" t="n">
-        <v>55.76886367797852</v>
+        <v>56.54351425170898</v>
       </c>
       <c r="D37" t="n">
-        <v>167.0962219238281</v>
+        <v>167.0355529785156</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>13.73876190185547</v>
+        <v>13.76547813415527</v>
       </c>
       <c r="B38" t="n">
-        <v>35.45149993896484</v>
+        <v>33.49039840698242</v>
       </c>
       <c r="C38" t="n">
-        <v>46.50166702270508</v>
+        <v>46.9705810546875</v>
       </c>
       <c r="D38" t="n">
-        <v>167.2938537597656</v>
+        <v>167.2444152832031</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>14.16538238525391</v>
+        <v>14.15336894989014</v>
       </c>
       <c r="B39" t="n">
-        <v>49.70074462890625</v>
+        <v>50.03068542480469</v>
       </c>
       <c r="C39" t="n">
-        <v>67.93389129638672</v>
+        <v>62.29943084716797</v>
       </c>
       <c r="D39" t="n">
-        <v>165.9132232666016</v>
+        <v>165.9193878173828</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>16.78113555908203</v>
+        <v>16.61562156677246</v>
       </c>
       <c r="B40" t="n">
-        <v>42.050048828125</v>
+        <v>42.02399063110352</v>
       </c>
       <c r="C40" t="n">
-        <v>52.4012565612793</v>
+        <v>52.21004867553711</v>
       </c>
       <c r="D40" t="n">
-        <v>167.9573059082031</v>
+        <v>167.9304046630859</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>14.54399299621582</v>
+        <v>14.48265933990479</v>
       </c>
       <c r="B41" t="n">
-        <v>34.87350082397461</v>
+        <v>34.73482513427734</v>
       </c>
       <c r="C41" t="n">
-        <v>44.29773712158203</v>
+        <v>44.3226432800293</v>
       </c>
       <c r="D41" t="n">
-        <v>167.7247009277344</v>
+        <v>167.6882629394531</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>15.42633724212646</v>
+        <v>15.40361022949219</v>
       </c>
       <c r="B42" t="n">
-        <v>42.62742614746094</v>
+        <v>42.36153411865234</v>
       </c>
       <c r="C42" t="n">
-        <v>47.65682983398438</v>
+        <v>47.47858810424805</v>
       </c>
       <c r="D42" t="n">
-        <v>167.49365234375</v>
+        <v>167.5161285400391</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>11.76299381256104</v>
+        <v>13.45318222045898</v>
       </c>
       <c r="B43" t="n">
-        <v>39.87741088867188</v>
+        <v>43.88656234741211</v>
       </c>
       <c r="C43" t="n">
-        <v>45.6110954284668</v>
+        <v>45.63827514648438</v>
       </c>
       <c r="D43" t="n">
-        <v>167.3476104736328</v>
+        <v>167.3430023193359</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>13.94198989868164</v>
+        <v>13.56490516662598</v>
       </c>
       <c r="B44" t="n">
-        <v>37.47031021118164</v>
+        <v>40.81082153320312</v>
       </c>
       <c r="C44" t="n">
-        <v>42.85302734375</v>
+        <v>46.72536468505859</v>
       </c>
       <c r="D44" t="n">
-        <v>167.2488250732422</v>
+        <v>167.2354431152344</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>15.88169860839844</v>
+        <v>15.8429069519043</v>
       </c>
       <c r="B45" t="n">
-        <v>44.86587142944336</v>
+        <v>44.58454513549805</v>
       </c>
       <c r="C45" t="n">
-        <v>62.57622909545898</v>
+        <v>52.24240112304688</v>
       </c>
       <c r="D45" t="n">
-        <v>167.0038299560547</v>
+        <v>166.9847412109375</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>16.49895668029785</v>
+        <v>16.40747451782227</v>
       </c>
       <c r="B46" t="n">
-        <v>34.22475814819336</v>
+        <v>34.18966293334961</v>
       </c>
       <c r="C46" t="n">
-        <v>46.78095626831055</v>
+        <v>46.73573684692383</v>
       </c>
       <c r="D46" t="n">
-        <v>166.6889343261719</v>
+        <v>166.6629638671875</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>14.76626300811768</v>
+        <v>15.00180625915527</v>
       </c>
       <c r="B47" t="n">
-        <v>43.67423248291016</v>
+        <v>46.2809944152832</v>
       </c>
       <c r="C47" t="n">
-        <v>59.09960174560547</v>
+        <v>66.48484039306641</v>
       </c>
       <c r="D47" t="n">
-        <v>165.9880523681641</v>
+        <v>166.3845825195312</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>17.14695358276367</v>
+        <v>17.84517097473145</v>
       </c>
       <c r="B48" t="n">
-        <v>46.48120880126953</v>
+        <v>40.55759048461914</v>
       </c>
       <c r="C48" t="n">
-        <v>53.75998687744141</v>
+        <v>53.89339828491211</v>
       </c>
       <c r="D48" t="n">
-        <v>167.9480590820312</v>
+        <v>167.9134216308594</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>17.32283020019531</v>
+        <v>18.5885124206543</v>
       </c>
       <c r="B49" t="n">
-        <v>45.78011703491211</v>
+        <v>39.42664337158203</v>
       </c>
       <c r="C49" t="n">
-        <v>44.10160064697266</v>
+        <v>46.78514099121094</v>
       </c>
       <c r="D49" t="n">
-        <v>167.7189788818359</v>
+        <v>167.6664123535156</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>16.60737609863281</v>
+        <v>17.08337020874023</v>
       </c>
       <c r="B50" t="n">
-        <v>42.45235061645508</v>
+        <v>43.42736434936523</v>
       </c>
       <c r="C50" t="n">
-        <v>47.50190734863281</v>
+        <v>47.22900390625</v>
       </c>
       <c r="D50" t="n">
-        <v>167.5035858154297</v>
+        <v>167.4825744628906</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>13.64094924926758</v>
+        <v>13.39280223846436</v>
       </c>
       <c r="B51" t="n">
-        <v>38.19452667236328</v>
+        <v>38.18026733398438</v>
       </c>
       <c r="C51" t="n">
-        <v>45.49813842773438</v>
+        <v>45.40657424926758</v>
       </c>
       <c r="D51" t="n">
-        <v>167.3338317871094</v>
+        <v>167.3216857910156</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>15.67005920410156</v>
+        <v>15.72211647033691</v>
       </c>
       <c r="B52" t="n">
-        <v>38.73848724365234</v>
+        <v>37.90843200683594</v>
       </c>
       <c r="C52" t="n">
-        <v>52.69915008544922</v>
+        <v>42.29630279541016</v>
       </c>
       <c r="D52" t="n">
-        <v>167.2754974365234</v>
+        <v>167.2715606689453</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>16.78559112548828</v>
+        <v>16.83790016174316</v>
       </c>
       <c r="B53" t="n">
-        <v>43.87617492675781</v>
+        <v>43.76707077026367</v>
       </c>
       <c r="C53" t="n">
-        <v>60.79941940307617</v>
+        <v>61.02878189086914</v>
       </c>
       <c r="D53" t="n">
-        <v>166.9637298583984</v>
+        <v>166.9248352050781</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>17.01350784301758</v>
+        <v>16.95137214660645</v>
       </c>
       <c r="B54" t="n">
-        <v>40.02973937988281</v>
+        <v>40.32343673706055</v>
       </c>
       <c r="C54" t="n">
-        <v>46.54996871948242</v>
+        <v>46.04552841186523</v>
       </c>
       <c r="D54" t="n">
-        <v>166.6706085205078</v>
+        <v>166.6413879394531</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>17.66169738769531</v>
+        <v>17.76689338684082</v>
       </c>
       <c r="B55" t="n">
-        <v>47.55157089233398</v>
+        <v>46.11651611328125</v>
       </c>
       <c r="C55" t="n">
-        <v>57.05875396728516</v>
+        <v>55.77536773681641</v>
       </c>
       <c r="D55" t="n">
-        <v>166.6555023193359</v>
+        <v>166.4229431152344</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>16.71123123168945</v>
+        <v>16.74775505065918</v>
       </c>
       <c r="B56" t="n">
-        <v>44.7723503112793</v>
+        <v>44.43769454956055</v>
       </c>
       <c r="C56" t="n">
-        <v>55.30171203613281</v>
+        <v>55.65435791015625</v>
       </c>
       <c r="D56" t="n">
-        <v>167.8799285888672</v>
+        <v>167.8640747070312</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>17.17471885681152</v>
+        <v>17.08353233337402</v>
       </c>
       <c r="B57" t="n">
-        <v>42.89193344116211</v>
+        <v>42.72869110107422</v>
       </c>
       <c r="C57" t="n">
-        <v>44.52760696411133</v>
+        <v>44.66484832763672</v>
       </c>
       <c r="D57" t="n">
-        <v>167.6245422363281</v>
+        <v>167.6328277587891</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>17.33430480957031</v>
+        <v>17.3295783996582</v>
       </c>
       <c r="B58" t="n">
-        <v>45.28644561767578</v>
+        <v>44.86559677124023</v>
       </c>
       <c r="C58" t="n">
-        <v>48.49897766113281</v>
+        <v>48.56603240966797</v>
       </c>
       <c r="D58" t="n">
-        <v>167.4699554443359</v>
+        <v>167.4519805908203</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>16.28252220153809</v>
+        <v>15.39614772796631</v>
       </c>
       <c r="B59" t="n">
-        <v>38.74056625366211</v>
+        <v>39.59706878662109</v>
       </c>
       <c r="C59" t="n">
-        <v>44.19861221313477</v>
+        <v>44.41924667358398</v>
       </c>
       <c r="D59" t="n">
-        <v>167.2994995117188</v>
+        <v>167.2952423095703</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>19.49347686767578</v>
+        <v>19.36776542663574</v>
       </c>
       <c r="B60" t="n">
-        <v>49.33278656005859</v>
+        <v>49.10073089599609</v>
       </c>
       <c r="C60" t="n">
-        <v>52.65880584716797</v>
+        <v>48.94370269775391</v>
       </c>
       <c r="D60" t="n">
-        <v>167.2743988037109</v>
+        <v>167.2630004882812</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>19.04831695556641</v>
+        <v>19.1932201385498</v>
       </c>
       <c r="B61" t="n">
-        <v>51.63327789306641</v>
+        <v>45.69591903686523</v>
       </c>
       <c r="C61" t="n">
-        <v>58.16140747070312</v>
+        <v>58.05220794677734</v>
       </c>
       <c r="D61" t="n">
-        <v>166.5145416259766</v>
+        <v>166.8113555908203</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>21.3087272644043</v>
+        <v>21.31064987182617</v>
       </c>
       <c r="B62" t="n">
-        <v>56.67574691772461</v>
+        <v>56.12786102294922</v>
       </c>
       <c r="C62" t="n">
-        <v>54.21045303344727</v>
+        <v>54.36196517944336</v>
       </c>
       <c r="D62" t="n">
-        <v>166.7071838378906</v>
+        <v>167.3074035644531</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>19.04570198059082</v>
+        <v>18.55360794067383</v>
       </c>
       <c r="B63" t="n">
-        <v>45.46454620361328</v>
+        <v>48.69612884521484</v>
       </c>
       <c r="C63" t="n">
-        <v>59.32656478881836</v>
+        <v>61.38742065429688</v>
       </c>
       <c r="D63" t="n">
-        <v>166.4384613037109</v>
+        <v>167.0977020263672</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>14.78520679473877</v>
+        <v>17.66088676452637</v>
       </c>
       <c r="B64" t="n">
-        <v>35.37754058837891</v>
+        <v>35.47536087036133</v>
       </c>
       <c r="C64" t="n">
-        <v>49.26756286621094</v>
+        <v>50.67264175415039</v>
       </c>
       <c r="D64" t="n">
-        <v>167.7879943847656</v>
+        <v>167.8258514404297</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>15.41075134277344</v>
+        <v>15.41274452209473</v>
       </c>
       <c r="B65" t="n">
-        <v>38.7099609375</v>
+        <v>38.76714706420898</v>
       </c>
       <c r="C65" t="n">
-        <v>44.32895660400391</v>
+        <v>44.66207122802734</v>
       </c>
       <c r="D65" t="n">
-        <v>167.6209869384766</v>
+        <v>167.5865631103516</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>12.80158710479736</v>
+        <v>13.5120267868042</v>
       </c>
       <c r="B66" t="n">
-        <v>33.38410568237305</v>
+        <v>33.35868835449219</v>
       </c>
       <c r="C66" t="n">
-        <v>45.21845245361328</v>
+        <v>45.56512451171875</v>
       </c>
       <c r="D66" t="n">
-        <v>167.4078979492188</v>
+        <v>167.4278106689453</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>16.76406288146973</v>
+        <v>16.68068885803223</v>
       </c>
       <c r="B67" t="n">
-        <v>38.45358276367188</v>
+        <v>38.3763427734375</v>
       </c>
       <c r="C67" t="n">
-        <v>43.22024154663086</v>
+        <v>46.7364387512207</v>
       </c>
       <c r="D67" t="n">
-        <v>167.2751770019531</v>
+        <v>166.9371337890625</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>18.98978424072266</v>
+        <v>19.03120994567871</v>
       </c>
       <c r="B68" t="n">
-        <v>52.33427047729492</v>
+        <v>52.83588790893555</v>
       </c>
       <c r="C68" t="n">
-        <v>57.00071334838867</v>
+        <v>57.27027130126953</v>
       </c>
       <c r="D68" t="n">
-        <v>167.2756805419922</v>
+        <v>167.2379760742188</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>17.37721061706543</v>
+        <v>17.36101150512695</v>
       </c>
       <c r="B69" t="n">
-        <v>40.55808258056641</v>
+        <v>40.92154312133789</v>
       </c>
       <c r="C69" t="n">
-        <v>52.03325653076172</v>
+        <v>52.15440368652344</v>
       </c>
       <c r="D69" t="n">
-        <v>166.8150939941406</v>
+        <v>166.8279418945312</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>20.70444488525391</v>
+        <v>20.78615570068359</v>
       </c>
       <c r="B70" t="n">
-        <v>56.20315551757812</v>
+        <v>56.83496856689453</v>
       </c>
       <c r="C70" t="n">
-        <v>68.37199401855469</v>
+        <v>68.6732177734375</v>
       </c>
       <c r="D70" t="n">
-        <v>166.4995574951172</v>
+        <v>166.5304412841797</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>20.25498580932617</v>
+        <v>20.36231231689453</v>
       </c>
       <c r="B71" t="n">
-        <v>55.89191055297852</v>
+        <v>46.09835433959961</v>
       </c>
       <c r="C71" t="n">
-        <v>81.12368011474609</v>
+        <v>76.644775390625</v>
       </c>
       <c r="D71" t="n">
-        <v>165.0828094482422</v>
+        <v>165.4776916503906</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>15.16367435455322</v>
+        <v>13.6064510345459</v>
       </c>
       <c r="B72" t="n">
-        <v>29.90592002868652</v>
+        <v>29.52047538757324</v>
       </c>
       <c r="C72" t="n">
-        <v>44.89423370361328</v>
+        <v>45.51181030273438</v>
       </c>
       <c r="D72" t="n">
-        <v>167.8271026611328</v>
+        <v>167.7541809082031</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>17.34521865844727</v>
+        <v>17.33512306213379</v>
       </c>
       <c r="B73" t="n">
-        <v>39.00174713134766</v>
+        <v>39.19196701049805</v>
       </c>
       <c r="C73" t="n">
-        <v>43.7134895324707</v>
+        <v>47.02778625488281</v>
       </c>
       <c r="D73" t="n">
-        <v>167.6291046142578</v>
+        <v>167.1539001464844</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>15.75160598754883</v>
+        <v>16.14837265014648</v>
       </c>
       <c r="B74" t="n">
-        <v>33.67610168457031</v>
+        <v>33.36682891845703</v>
       </c>
       <c r="C74" t="n">
-        <v>43.17778396606445</v>
+        <v>43.49377822875977</v>
       </c>
       <c r="D74" t="n">
-        <v>166.9375152587891</v>
+        <v>167.3699035644531</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>14.27535057067871</v>
+        <v>14.36466026306152</v>
       </c>
       <c r="B75" t="n">
-        <v>35.32223892211914</v>
+        <v>35.01802062988281</v>
       </c>
       <c r="C75" t="n">
-        <v>43.00068664550781</v>
+        <v>42.59271621704102</v>
       </c>
       <c r="D75" t="n">
-        <v>167.3244171142578</v>
+        <v>167.2715911865234</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>17.23800277709961</v>
+        <v>18.30193328857422</v>
       </c>
       <c r="B76" t="n">
-        <v>51.03372573852539</v>
+        <v>49.5849609375</v>
       </c>
       <c r="C76" t="n">
-        <v>60.72723007202148</v>
+        <v>60.45931243896484</v>
       </c>
       <c r="D76" t="n">
-        <v>167.1513824462891</v>
+        <v>166.8333435058594</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>12.76526641845703</v>
+        <v>15.62753009796143</v>
       </c>
       <c r="B77" t="n">
-        <v>37.17515563964844</v>
+        <v>37.12123870849609</v>
       </c>
       <c r="C77" t="n">
-        <v>48.62047576904297</v>
+        <v>48.58452606201172</v>
       </c>
       <c r="D77" t="n">
-        <v>166.7830505371094</v>
+        <v>166.7138061523438</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>20.13669013977051</v>
+        <v>20.20223999023438</v>
       </c>
       <c r="B78" t="n">
-        <v>56.85758590698242</v>
+        <v>56.93843841552734</v>
       </c>
       <c r="C78" t="n">
-        <v>65.58023071289062</v>
+        <v>69.71936798095703</v>
       </c>
       <c r="D78" t="n">
-        <v>166.2882843017578</v>
+        <v>166.3189849853516</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>21.01119804382324</v>
+        <v>21.01406860351562</v>
       </c>
       <c r="B79" t="n">
-        <v>50.71821594238281</v>
+        <v>59.57084274291992</v>
       </c>
       <c r="C79" t="n">
-        <v>87.24057006835938</v>
+        <v>87.46587371826172</v>
       </c>
       <c r="D79" t="n">
-        <v>165.5907287597656</v>
+        <v>166.7047729492188</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>14.95357227325439</v>
+        <v>14.95289897918701</v>
       </c>
       <c r="B80" t="n">
-        <v>33.74201202392578</v>
+        <v>36.94855880737305</v>
       </c>
       <c r="C80" t="n">
-        <v>44.39132308959961</v>
+        <v>44.2967414855957</v>
       </c>
       <c r="D80" t="n">
-        <v>167.7561950683594</v>
+        <v>167.6929931640625</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>15.48180198669434</v>
+        <v>15.53886890411377</v>
       </c>
       <c r="B81" t="n">
-        <v>43.56100082397461</v>
+        <v>46.51985931396484</v>
       </c>
       <c r="C81" t="n">
-        <v>46.61269378662109</v>
+        <v>46.35433578491211</v>
       </c>
       <c r="D81" t="n">
-        <v>167.5190887451172</v>
+        <v>167.5526428222656</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>15.2333984375</v>
+        <v>14.62257862091064</v>
       </c>
       <c r="B82" t="n">
-        <v>43.51894760131836</v>
+        <v>44.52301025390625</v>
       </c>
       <c r="C82" t="n">
-        <v>44.75171279907227</v>
+        <v>44.57831573486328</v>
       </c>
       <c r="D82" t="n">
-        <v>167.3692016601562</v>
+        <v>167.4294738769531</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>13.4695291519165</v>
+        <v>13.6310863494873</v>
       </c>
       <c r="B83" t="n">
-        <v>36.34237289428711</v>
+        <v>33.75258636474609</v>
       </c>
       <c r="C83" t="n">
-        <v>42.3966178894043</v>
+        <v>42.77818298339844</v>
       </c>
       <c r="D83" t="n">
-        <v>167.2527770996094</v>
+        <v>167.2915954589844</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>14.91402339935303</v>
+        <v>14.8433666229248</v>
       </c>
       <c r="B84" t="n">
-        <v>48.36553955078125</v>
+        <v>48.20764541625977</v>
       </c>
       <c r="C84" t="n">
-        <v>63.56075286865234</v>
+        <v>63.13082122802734</v>
       </c>
       <c r="D84" t="n">
-        <v>167.0740203857422</v>
+        <v>167.030029296875</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>14.34222412109375</v>
+        <v>14.27668952941895</v>
       </c>
       <c r="B85" t="n">
-        <v>36.20309448242188</v>
+        <v>33.12836456298828</v>
       </c>
       <c r="C85" t="n">
-        <v>47.72893905639648</v>
+        <v>47.56481552124023</v>
       </c>
       <c r="D85" t="n">
-        <v>166.7088012695312</v>
+        <v>166.5862274169922</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>14.60394668579102</v>
+        <v>15.35306358337402</v>
       </c>
       <c r="B86" t="n">
-        <v>43.41983032226562</v>
+        <v>38.3469123840332</v>
       </c>
       <c r="C86" t="n">
-        <v>69.86906433105469</v>
+        <v>69.50149536132812</v>
       </c>
       <c r="D86" t="n">
-        <v>166.0850219726562</v>
+        <v>166.3622283935547</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>16.94523239135742</v>
+        <v>15.97701263427734</v>
       </c>
       <c r="B87" t="n">
-        <v>55.05893707275391</v>
+        <v>55.01632308959961</v>
       </c>
       <c r="C87" t="n">
-        <v>80.86837768554688</v>
+        <v>80.92845916748047</v>
       </c>
       <c r="D87" t="n">
-        <v>165.3539428710938</v>
+        <v>166.0728759765625</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>13.71744251251221</v>
+        <v>13.69052219390869</v>
       </c>
       <c r="B88" t="n">
-        <v>35.7320442199707</v>
+        <v>35.81307220458984</v>
       </c>
       <c r="C88" t="n">
-        <v>44.65401077270508</v>
+        <v>43.77947616577148</v>
       </c>
       <c r="D88" t="n">
-        <v>167.7496032714844</v>
+        <v>167.7096405029297</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>15.1031436920166</v>
+        <v>14.55746746063232</v>
       </c>
       <c r="B89" t="n">
-        <v>44.72692108154297</v>
+        <v>45.6696891784668</v>
       </c>
       <c r="C89" t="n">
-        <v>47.92639923095703</v>
+        <v>47.9578742980957</v>
       </c>
       <c r="D89" t="n">
-        <v>167.5311431884766</v>
+        <v>167.5334167480469</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>14.07228374481201</v>
+        <v>14.07449054718018</v>
       </c>
       <c r="B90" t="n">
-        <v>46.74038314819336</v>
+        <v>46.73867416381836</v>
       </c>
       <c r="C90" t="n">
-        <v>53.47721862792969</v>
+        <v>45.49021148681641</v>
       </c>
       <c r="D90" t="n">
-        <v>167.362060546875</v>
+        <v>167.3575744628906</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>12.12117481231689</v>
+        <v>12.10555648803711</v>
       </c>
       <c r="B91" t="n">
-        <v>34.36909103393555</v>
+        <v>34.11610794067383</v>
       </c>
       <c r="C91" t="n">
-        <v>43.05735778808594</v>
+        <v>42.78354263305664</v>
       </c>
       <c r="D91" t="n">
-        <v>167.2515563964844</v>
+        <v>167.2961730957031</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>13.65018558502197</v>
+        <v>12.46274948120117</v>
       </c>
       <c r="B92" t="n">
-        <v>46.10663986206055</v>
+        <v>46.12521743774414</v>
       </c>
       <c r="C92" t="n">
-        <v>63.21442413330078</v>
+        <v>63.70758056640625</v>
       </c>
       <c r="D92" t="n">
-        <v>167.0247344970703</v>
+        <v>167.0567932128906</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>13.82845973968506</v>
+        <v>13.85250186920166</v>
       </c>
       <c r="B93" t="n">
-        <v>45.3885612487793</v>
+        <v>33.8082389831543</v>
       </c>
       <c r="C93" t="n">
-        <v>47.46620178222656</v>
+        <v>48.01844787597656</v>
       </c>
       <c r="D93" t="n">
-        <v>166.7365875244141</v>
+        <v>166.6981201171875</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>15.04896926879883</v>
+        <v>15.00526428222656</v>
       </c>
       <c r="B94" t="n">
-        <v>46.82051086425781</v>
+        <v>45.64859390258789</v>
       </c>
       <c r="C94" t="n">
-        <v>59.21231842041016</v>
+        <v>76.13669586181641</v>
       </c>
       <c r="D94" t="n">
-        <v>165.9540557861328</v>
+        <v>165.9002227783203</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>13.90491676330566</v>
+        <v>13.90767097473145</v>
       </c>
       <c r="B95" t="n">
-        <v>51.47502517700195</v>
+        <v>49.14208221435547</v>
       </c>
       <c r="C95" t="n">
-        <v>74.57221984863281</v>
+        <v>64.61214447021484</v>
       </c>
       <c r="D95" t="n">
-        <v>166.2920684814453</v>
+        <v>166.3610687255859</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>12.25940227508545</v>
+        <v>11.67025852203369</v>
       </c>
       <c r="B96" t="n">
-        <v>35.85750961303711</v>
+        <v>35.84407806396484</v>
       </c>
       <c r="C96" t="n">
-        <v>44.69631958007812</v>
+        <v>44.11605834960938</v>
       </c>
       <c r="D96" t="n">
-        <v>167.7707214355469</v>
+        <v>167.7195281982422</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>14.68271827697754</v>
+        <v>14.76417255401611</v>
       </c>
       <c r="B97" t="n">
-        <v>44.30940246582031</v>
+        <v>44.56961441040039</v>
       </c>
       <c r="C97" t="n">
-        <v>48.3767204284668</v>
+        <v>47.74893188476562</v>
       </c>
       <c r="D97" t="n">
-        <v>167.4971923828125</v>
+        <v>167.5314025878906</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>13.54481029510498</v>
+        <v>13.2868070602417</v>
       </c>
       <c r="B98" t="n">
-        <v>46.67533493041992</v>
+        <v>47.20059585571289</v>
       </c>
       <c r="C98" t="n">
-        <v>54.13380813598633</v>
+        <v>45.64440155029297</v>
       </c>
       <c r="D98" t="n">
-        <v>167.3791961669922</v>
+        <v>167.3733062744141</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>11.6253719329834</v>
+        <v>11.31962490081787</v>
       </c>
       <c r="B99" t="n">
-        <v>33.90551376342773</v>
+        <v>38.28211975097656</v>
       </c>
       <c r="C99" t="n">
-        <v>47.83524322509766</v>
+        <v>43.89233779907227</v>
       </c>
       <c r="D99" t="n">
-        <v>167.2735290527344</v>
+        <v>167.2964324951172</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>11.11447048187256</v>
+        <v>11.09027862548828</v>
       </c>
       <c r="B100" t="n">
-        <v>45.72234344482422</v>
+        <v>45.61255645751953</v>
       </c>
       <c r="C100" t="n">
-        <v>64.14390563964844</v>
+        <v>63.31397247314453</v>
       </c>
       <c r="D100" t="n">
-        <v>167.0682525634766</v>
+        <v>167.0427551269531</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>12.61107730865479</v>
+        <v>12.63575553894043</v>
       </c>
       <c r="B101" t="n">
-        <v>40.69692230224609</v>
+        <v>37.67774963378906</v>
       </c>
       <c r="C101" t="n">
-        <v>47.43120574951172</v>
+        <v>46.87344741821289</v>
       </c>
       <c r="D101" t="n">
-        <v>166.7062377929688</v>
+        <v>166.7010955810547</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>16.50898551940918</v>
+        <v>16.55887413024902</v>
       </c>
       <c r="B102" t="n">
-        <v>50.47593307495117</v>
+        <v>50.3336296081543</v>
       </c>
       <c r="C102" t="n">
-        <v>82.60155487060547</v>
+        <v>82.80766296386719</v>
       </c>
       <c r="D102" t="n">
-        <v>165.9659271240234</v>
+        <v>165.9364471435547</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>13.0690279006958</v>
+        <v>13.12967967987061</v>
       </c>
       <c r="B103" t="n">
-        <v>43.99655532836914</v>
+        <v>42.88305282592773</v>
       </c>
       <c r="C103" t="n">
-        <v>57.219970703125</v>
+        <v>46.26667404174805</v>
       </c>
       <c r="D103" t="n">
-        <v>165.8488159179688</v>
+        <v>165.5448150634766</v>
       </c>
     </row>
   </sheetData>
